--- a/test_case/nky_bpm/redeMe.xlsx
+++ b/test_case/nky_bpm/redeMe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="支出管理" sheetId="1" r:id="rId1"/>
@@ -279,8 +279,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -293,10 +293,76 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,70 +381,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,39 +412,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,13 +445,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,169 +613,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,6 +636,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -666,38 +681,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,8 +716,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,142 +756,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -965,7 +962,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1246,17 +1243,17 @@
   <sheetPr/>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="55.625" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="55.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="18.3796296296296" customWidth="1"/>
     <col min="4" max="4" width="42.75" customWidth="1"/>
-    <col min="5" max="5" width="49.875" customWidth="1"/>
+    <col min="5" max="5" width="49.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1282,7 +1279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="162" spans="1:5">
+    <row r="2" ht="201.6" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="162" spans="1:5">
+    <row r="3" ht="201.6" spans="1:5">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1310,7 +1307,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="216" spans="1:5">
+    <row r="4" ht="259.2" spans="1:5">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1327,45 +1324,45 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="162" spans="1:5">
+    <row r="5" ht="201.6" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="175.5" spans="1:5">
+    <row r="6" ht="216" spans="1:5">
       <c r="A6" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="175.5" spans="1:5">
+    <row r="7" ht="216" spans="1:5">
       <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1513,7 +1510,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1530,7 +1527,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
